--- a/Data/Donanemab.xlsx
+++ b/Data/Donanemab.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\shiny_test\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\Alzheimers_Disease_New_Hope\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8695339A-27C4-40BA-ACC6-4FA0F60EF334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1729A3-882E-4AC0-9FD3-F659A8B7D756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86" yWindow="0" windowWidth="8777" windowHeight="11709" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10920" yWindow="0" windowWidth="11109" windowHeight="11709" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="AE" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="safety" sheetId="5" r:id="rId3"/>
     <sheet name="K-M" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>CDR-SB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,38 @@
   </si>
   <si>
     <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Participants with ≥1 Aes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Participants with ≥1 serious AE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Study discontinuations due to Aes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Donanemab Placebo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Events</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Donanemab_Placebo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BECDFD9-8B14-40E0-BE81-5474177718C8}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -631,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -740,15 +772,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCABD0C-6E7E-4A53-8924-1A2B3DA62187}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B945A234-0C75-4026-ABAA-5A9EB8483AF0}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>759</v>
+      </c>
+      <c r="C2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>148</v>
+      </c>
+      <c r="C3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -756,198 +844,249 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B1883B-9163-4EFC-8E7E-B0A652D42AF0}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>542</v>
+      <c r="B2" t="s">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>60</v>
       </c>
-      <c r="B3">
-        <v>539</v>
+      <c r="B3" t="s">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>120</v>
       </c>
-      <c r="B4">
-        <v>506</v>
-      </c>
-      <c r="C4">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>180</v>
       </c>
-      <c r="B5">
-        <v>484</v>
-      </c>
-      <c r="C5">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>240</v>
       </c>
-      <c r="B6">
-        <v>467</v>
-      </c>
-      <c r="C6">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>360</v>
       </c>
-      <c r="B7">
-        <v>403</v>
-      </c>
-      <c r="C7">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>480</v>
       </c>
-      <c r="B8">
-        <v>322</v>
-      </c>
-      <c r="C8">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>14</v>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>540</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>60</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>120</v>
-      </c>
-      <c r="B13" s="1">
-        <v>4.2999999999999997E-2</v>
+        <v>180</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>180</v>
-      </c>
-      <c r="B14" s="1">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>240</v>
-      </c>
-      <c r="B15" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>360</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>0.13100000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>360</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.13500000000000001</v>
+        <v>480</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>0.19500000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>480</v>
-      </c>
-      <c r="B17" s="1">
+        <v>540</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
         <v>0.26200000000000001</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.36299999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>540</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="D17" s="1">
         <v>0.36299999999999999</v>
       </c>
     </row>

--- a/Data/Donanemab.xlsx
+++ b/Data/Donanemab.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\Alzheimers_Disease_New_Hope\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1729A3-882E-4AC0-9FD3-F659A8B7D756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44324BCF-5B12-45C3-A3E0-C2AB1A4EAF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="0" windowWidth="11109" windowHeight="11709" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="AE" sheetId="2" r:id="rId2"/>
     <sheet name="safety" sheetId="5" r:id="rId3"/>
     <sheet name="K-M" sheetId="3" r:id="rId4"/>
+    <sheet name="result" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
   <si>
     <t>CDR-SB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,18 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Participants with ≥1 Aes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Participants with ≥1 serious AE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Study discontinuations due to Aes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Death</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +119,66 @@
   </si>
   <si>
     <t>Donanemab_Placebo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>sample_size</t>
+  </si>
+  <si>
+    <t>ci_lower</t>
+  </si>
+  <si>
+    <t>ci_upper</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Donanemab-Low/medium tau</t>
+  </si>
+  <si>
+    <t>Placebo-Low/medium tau</t>
+  </si>
+  <si>
+    <t>Donanemab-combined</t>
+  </si>
+  <si>
+    <t>Placebo-combined</t>
+  </si>
+  <si>
+    <t>CDR-SB</t>
+  </si>
+  <si>
+    <t>ADCS-iADL</t>
+  </si>
+  <si>
+    <t>ADCS-Cog13</t>
+  </si>
+  <si>
+    <t>MMSE</t>
+  </si>
+  <si>
+    <t>Participants with ≥1 AEs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Participants with ≥1 serious Aes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Study discontinuations due to AEs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BECDFD9-8B14-40E0-BE81-5474177718C8}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -663,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -775,26 +824,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B945A234-0C75-4026-ABAA-5A9EB8483AF0}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>759</v>
@@ -805,7 +854,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>148</v>
@@ -816,7 +865,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>69</v>
@@ -827,7 +876,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -1094,4 +1143,878 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2660C716-DE70-4357-B0AE-9772EEE5742A}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>3.72</v>
+      </c>
+      <c r="D2">
+        <v>2.09</v>
+      </c>
+      <c r="E2">
+        <v>546</v>
+      </c>
+      <c r="F2">
+        <v>3.5446902638478299</v>
+      </c>
+      <c r="G2">
+        <v>3.8953097361521705</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>3.64</v>
+      </c>
+      <c r="D3">
+        <v>1.99</v>
+      </c>
+      <c r="E3">
+        <v>569</v>
+      </c>
+      <c r="F3">
+        <v>3.4764867259490497</v>
+      </c>
+      <c r="G3">
+        <v>3.8035132740509505</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>3.92</v>
+      </c>
+      <c r="D4">
+        <v>2.06</v>
+      </c>
+      <c r="E4">
+        <v>794</v>
+      </c>
+      <c r="F4">
+        <v>3.7767109377334078</v>
+      </c>
+      <c r="G4">
+        <v>4.063289062266592</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>3.89</v>
+      </c>
+      <c r="D5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E5">
+        <v>838</v>
+      </c>
+      <c r="F5">
+        <v>3.7525546346773115</v>
+      </c>
+      <c r="G5">
+        <v>4.0274453653226887</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="D6">
+        <v>2.9</v>
+      </c>
+      <c r="E6">
+        <v>424</v>
+      </c>
+      <c r="F6">
+        <v>4.3639605579180651</v>
+      </c>
+      <c r="G6">
+        <v>4.9160394420819342</v>
+      </c>
+      <c r="H6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>5.13</v>
+      </c>
+      <c r="D7">
+        <v>2.93</v>
+      </c>
+      <c r="E7">
+        <v>459</v>
+      </c>
+      <c r="F7">
+        <v>4.8619490511147978</v>
+      </c>
+      <c r="G7">
+        <v>5.398050948885202</v>
+      </c>
+      <c r="H7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>5.25</v>
+      </c>
+      <c r="D8">
+        <v>3.21</v>
+      </c>
+      <c r="E8">
+        <v>598</v>
+      </c>
+      <c r="F8">
+        <v>4.9927173432099439</v>
+      </c>
+      <c r="G8">
+        <v>5.5072826567900561</v>
+      </c>
+      <c r="H8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>5.8</v>
+      </c>
+      <c r="D9">
+        <v>3.22</v>
+      </c>
+      <c r="E9">
+        <v>672</v>
+      </c>
+      <c r="F9">
+        <v>5.5565401744298111</v>
+      </c>
+      <c r="G9">
+        <v>6.0434598255701886</v>
+      </c>
+      <c r="H9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>48.2</v>
+      </c>
+      <c r="D10">
+        <v>7.88</v>
+      </c>
+      <c r="E10">
+        <v>535</v>
+      </c>
+      <c r="F10">
+        <v>47.532263067301415</v>
+      </c>
+      <c r="G10">
+        <v>48.867736932698591</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>48.56</v>
+      </c>
+      <c r="D11">
+        <v>7.7</v>
+      </c>
+      <c r="E11">
+        <v>562</v>
+      </c>
+      <c r="F11">
+        <v>47.923382403311997</v>
+      </c>
+      <c r="G11">
+        <v>49.196617596688007</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>47.96</v>
+      </c>
+      <c r="D12">
+        <v>7.85</v>
+      </c>
+      <c r="E12">
+        <v>780</v>
+      </c>
+      <c r="F12">
+        <v>47.409092827401466</v>
+      </c>
+      <c r="G12">
+        <v>48.510907172598536</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>47.98</v>
+      </c>
+      <c r="D13">
+        <v>7.7</v>
+      </c>
+      <c r="E13">
+        <v>826</v>
+      </c>
+      <c r="F13">
+        <v>47.454882160117641</v>
+      </c>
+      <c r="G13">
+        <v>48.505117839882352</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>46.12</v>
+      </c>
+      <c r="D14">
+        <v>10.26</v>
+      </c>
+      <c r="E14">
+        <v>420</v>
+      </c>
+      <c r="F14">
+        <v>45.138751994651706</v>
+      </c>
+      <c r="G14">
+        <v>47.101248005348289</v>
+      </c>
+      <c r="H14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>45.1</v>
+      </c>
+      <c r="D15">
+        <v>9.82</v>
+      </c>
+      <c r="E15">
+        <v>451</v>
+      </c>
+      <c r="F15">
+        <v>44.193684748855695</v>
+      </c>
+      <c r="G15">
+        <v>46.006315251144308</v>
+      </c>
+      <c r="H15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>44.53</v>
+      </c>
+      <c r="D16">
+        <v>11.06</v>
+      </c>
+      <c r="E16">
+        <v>591</v>
+      </c>
+      <c r="F16">
+        <v>43.638302687156312</v>
+      </c>
+      <c r="G16">
+        <v>45.42169731284369</v>
+      </c>
+      <c r="H16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>43.3</v>
+      </c>
+      <c r="D17">
+        <v>10.61</v>
+      </c>
+      <c r="E17">
+        <v>661</v>
+      </c>
+      <c r="F17">
+        <v>42.491144904917356</v>
+      </c>
+      <c r="G17">
+        <v>44.108855095082639</v>
+      </c>
+      <c r="H17">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>27.41</v>
+      </c>
+      <c r="D18">
+        <v>8.44</v>
+      </c>
+      <c r="E18">
+        <v>550</v>
+      </c>
+      <c r="F18">
+        <v>26.704629693951791</v>
+      </c>
+      <c r="G18">
+        <v>28.115370306048209</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>27.6</v>
+      </c>
+      <c r="D19">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E19">
+        <v>570</v>
+      </c>
+      <c r="F19">
+        <v>26.925997044933336</v>
+      </c>
+      <c r="G19">
+        <v>28.274002955066667</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>28.53</v>
+      </c>
+      <c r="D20">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="E20">
+        <v>797</v>
+      </c>
+      <c r="F20">
+        <v>27.92043302960813</v>
+      </c>
+      <c r="G20">
+        <v>29.139566970391872</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>29.16</v>
+      </c>
+      <c r="D21">
+        <v>8.85</v>
+      </c>
+      <c r="E21">
+        <v>841</v>
+      </c>
+      <c r="F21">
+        <v>28.561862068965517</v>
+      </c>
+      <c r="G21">
+        <v>29.758137931034483</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>29.77</v>
+      </c>
+      <c r="D22">
+        <v>10.65</v>
+      </c>
+      <c r="E22">
+        <v>431</v>
+      </c>
+      <c r="F22">
+        <v>28.764534799636738</v>
+      </c>
+      <c r="G22">
+        <v>30.775465200363261</v>
+      </c>
+      <c r="H22">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>31.17</v>
+      </c>
+      <c r="D23">
+        <v>10.37</v>
+      </c>
+      <c r="E23">
+        <v>460</v>
+      </c>
+      <c r="F23">
+        <v>30.222332663577699</v>
+      </c>
+      <c r="G23">
+        <v>32.117667336422301</v>
+      </c>
+      <c r="H23">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>32.72</v>
+      </c>
+      <c r="D24">
+        <v>12.44</v>
+      </c>
+      <c r="E24">
+        <v>607</v>
+      </c>
+      <c r="F24">
+        <v>31.730348912632248</v>
+      </c>
+      <c r="G24">
+        <v>33.709651087367746</v>
+      </c>
+      <c r="H24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>34.53</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>677</v>
+      </c>
+      <c r="F25">
+        <v>33.626052968179671</v>
+      </c>
+      <c r="G25">
+        <v>35.433947031820331</v>
+      </c>
+      <c r="H25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>23.11</v>
+      </c>
+      <c r="D26">
+        <v>3.64</v>
+      </c>
+      <c r="E26">
+        <v>549</v>
+      </c>
+      <c r="F26">
+        <v>22.805511227935582</v>
+      </c>
+      <c r="G26">
+        <v>23.414488772064416</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>22.88</v>
+      </c>
+      <c r="D27">
+        <v>3.74</v>
+      </c>
+      <c r="E27">
+        <v>573</v>
+      </c>
+      <c r="F27">
+        <v>22.573768146785461</v>
+      </c>
+      <c r="G27">
+        <v>23.186231853214537</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>22.52</v>
+      </c>
+      <c r="D28">
+        <v>3.84</v>
+      </c>
+      <c r="E28">
+        <v>796</v>
+      </c>
+      <c r="F28">
+        <v>22.253233824931261</v>
+      </c>
+      <c r="G28">
+        <v>22.786766175068738</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>22.2</v>
+      </c>
+      <c r="D29">
+        <v>3.9</v>
+      </c>
+      <c r="E29">
+        <v>841</v>
+      </c>
+      <c r="F29">
+        <v>21.936413793103448</v>
+      </c>
+      <c r="G29">
+        <v>22.463586206896551</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E30">
+        <v>429</v>
+      </c>
+      <c r="F30">
+        <v>21.536314510578308</v>
+      </c>
+      <c r="G30">
+        <v>22.463685489421692</v>
+      </c>
+      <c r="H30">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>21.3</v>
+      </c>
+      <c r="D31">
+        <v>4.82</v>
+      </c>
+      <c r="E31">
+        <v>465</v>
+      </c>
+      <c r="F31">
+        <v>20.861896590397453</v>
+      </c>
+      <c r="G31">
+        <v>21.738103409602548</v>
+      </c>
+      <c r="H31">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>20.71</v>
+      </c>
+      <c r="D32">
+        <v>5.52</v>
+      </c>
+      <c r="E32">
+        <v>600</v>
+      </c>
+      <c r="F32">
+        <v>20.268308009581339</v>
+      </c>
+      <c r="G32">
+        <v>21.151691990418662</v>
+      </c>
+      <c r="H32">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>19.79</v>
+      </c>
+      <c r="D33">
+        <v>5.51</v>
+      </c>
+      <c r="E33">
+        <v>679</v>
+      </c>
+      <c r="F33">
+        <v>19.375549390106325</v>
+      </c>
+      <c r="G33">
+        <v>20.204450609893673</v>
+      </c>
+      <c r="H33">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Donanemab.xlsx
+++ b/Data/Donanemab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\Alzheimers_Disease_New_Hope\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44324BCF-5B12-45C3-A3E0-C2AB1A4EAF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B719022-85D4-4720-B2D4-6D5CE2C9006F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -824,7 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B945A234-0C75-4026-ABAA-5A9EB8483AF0}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1149,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2660C716-DE70-4357-B0AE-9772EEE5742A}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>

--- a/Data/Donanemab.xlsx
+++ b/Data/Donanemab.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\Alzheimers_Disease_New_Hope\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B719022-85D4-4720-B2D4-6D5CE2C9006F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93789E61-4ABF-4DF4-80BC-168FAD77AC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10920" yWindow="0" windowWidth="11109" windowHeight="11709" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
-    <sheet name="AE" sheetId="2" r:id="rId2"/>
-    <sheet name="safety" sheetId="5" r:id="rId3"/>
-    <sheet name="K-M" sheetId="3" r:id="rId4"/>
-    <sheet name="result" sheetId="6" r:id="rId5"/>
+    <sheet name="AE" sheetId="2" r:id="rId1"/>
+    <sheet name="safety" sheetId="5" r:id="rId2"/>
+    <sheet name="K-M" sheetId="3" r:id="rId3"/>
+    <sheet name="result" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
   <si>
     <t>CDR-SB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,187 +504,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BECDFD9-8B14-40E0-BE81-5474177718C8}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>205</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>168</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>119</v>
+      </c>
+      <c r="C5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>114</v>
+      </c>
+      <c r="C6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>24</v>
-      </c>
-      <c r="E2">
-        <v>36</v>
-      </c>
-      <c r="F2">
-        <v>52</v>
-      </c>
-      <c r="G2">
-        <v>64</v>
-      </c>
-      <c r="H2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>546</v>
-      </c>
-      <c r="C3">
-        <v>530</v>
-      </c>
-      <c r="D3">
-        <v>499</v>
-      </c>
-      <c r="E3">
-        <v>471</v>
-      </c>
-      <c r="F3">
-        <v>451</v>
-      </c>
-      <c r="G3">
-        <v>418</v>
-      </c>
-      <c r="H3">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>569</v>
-      </c>
-      <c r="C4">
-        <v>561</v>
-      </c>
-      <c r="D4">
-        <v>540</v>
-      </c>
-      <c r="E4">
-        <v>516</v>
-      </c>
-      <c r="F4">
-        <v>486</v>
-      </c>
-      <c r="G4">
-        <v>461</v>
-      </c>
-      <c r="H4">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C5">
-        <f>(C3-B3)/B3</f>
-        <v>-2.9304029304029304E-2</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:E5" si="0">(D3-C3)/C3</f>
-        <v>-5.849056603773585E-2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>-5.6112224448897796E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>36</v>
-      </c>
-      <c r="F8">
-        <v>52</v>
-      </c>
-      <c r="G8">
-        <v>64</v>
-      </c>
-      <c r="H8">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
       <c r="B9">
-        <v>533</v>
+        <v>53</v>
       </c>
       <c r="C9">
-        <v>517</v>
-      </c>
-      <c r="D9">
-        <v>487</v>
-      </c>
-      <c r="E9">
-        <v>459</v>
-      </c>
-      <c r="F9">
-        <v>441</v>
-      </c>
-      <c r="G9">
-        <v>406</v>
-      </c>
-      <c r="H9">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>560</v>
+        <v>43</v>
       </c>
       <c r="C10">
-        <v>549</v>
-      </c>
-      <c r="D10">
-        <v>526</v>
-      </c>
-      <c r="E10">
-        <v>506</v>
-      </c>
-      <c r="F10">
-        <v>474</v>
-      </c>
-      <c r="G10">
-        <v>447</v>
-      </c>
-      <c r="H10">
-        <v>444</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -695,132 +630,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BECDFD9-8B14-40E0-BE81-5474177718C8}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>74</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>205</v>
-      </c>
-      <c r="C3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>168</v>
-      </c>
-      <c r="C4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>119</v>
-      </c>
-      <c r="C5">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>114</v>
-      </c>
-      <c r="C6">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>45</v>
-      </c>
-      <c r="C7">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>53</v>
-      </c>
-      <c r="C9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>43</v>
-      </c>
-      <c r="C10">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B945A234-0C75-4026-ABAA-5A9EB8483AF0}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -891,7 +700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B1883B-9163-4EFC-8E7E-B0A652D42AF0}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -1145,11 +954,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2660C716-DE70-4357-B0AE-9772EEE5742A}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>

--- a/Data/Donanemab.xlsx
+++ b/Data/Donanemab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\Alzheimers_Disease_New_Hope\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93789E61-4ABF-4DF4-80BC-168FAD77AC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F726C93-BFF5-49EE-9102-A8460C0D3F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="0" windowWidth="11109" windowHeight="11709" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1783" yWindow="1783" windowWidth="17477" windowHeight="7268" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AE" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
   <si>
     <t>CDR-SB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,9 +163,6 @@
     <t>ADCS-iADL</t>
   </si>
   <si>
-    <t>ADCS-Cog13</t>
-  </si>
-  <si>
     <t>MMSE</t>
   </si>
   <si>
@@ -178,6 +175,14 @@
   </si>
   <si>
     <t>Study discontinuations due to AEs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADS-iADL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADAS-Cog13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +657,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>759</v>
@@ -663,7 +668,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>148</v>
@@ -674,7 +679,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>69</v>
@@ -958,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2660C716-DE70-4357-B0AE-9772EEE5742A}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1200,7 +1205,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -1408,7 +1413,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
@@ -1434,7 +1439,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -1460,7 +1465,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -1486,7 +1491,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
@@ -1512,7 +1517,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -1538,7 +1543,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1564,7 +1569,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -1590,7 +1595,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -1616,7 +1621,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -1642,7 +1647,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -1668,7 +1673,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -1694,7 +1699,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -1720,7 +1725,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -1746,7 +1751,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -1772,7 +1777,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -1798,7 +1803,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>

--- a/Data/Donanemab.xlsx
+++ b/Data/Donanemab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\Alzheimers_Disease_New_Hope\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F726C93-BFF5-49EE-9102-A8460C0D3F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6425F5-C364-4CA0-BE76-927F3690B8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1783" yWindow="1783" windowWidth="17477" windowHeight="7268" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2126" yWindow="2126" windowWidth="17477" windowHeight="7268" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AE" sheetId="2" r:id="rId1"/>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2660C716-DE70-4357-B0AE-9772EEE5742A}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
